--- a/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/2-TC_Login.xlsx
+++ b/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/2-TC_Login.xlsx
@@ -3,8 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Registration" sheetId="1" r:id="rId5"/>
-    <sheet state="visible" name="Login" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Login" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="410">
-  <si>
-    <t>Test_CaseID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="189">
+  <si>
+    <t>Test_caseID</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -32,884 +31,13 @@
     <t>Expected Result</t>
   </si>
   <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>TC_REG_001</t>
-  </si>
-  <si>
-    <t>Successful registration with valid data</t>
-  </si>
-  <si>
-    <t>User is on Registration page</t>
-  </si>
-  <si>
-    <t>1-Enter valid First Name (Ali)
-2-Enter valid Last Name (Test)
-3-Enter unique Email
-4-Enter valid Password (6–64 chars)
-5-Click Register</t>
-  </si>
-  <si>
-    <t>First Name: Valid (e.g., Ali)
-Last Name: Valid (e.g., Ennadafy)
-Unique email :Valid
-Valid password</t>
-  </si>
-  <si>
-    <t>- Account created successfully
-- “Your Account Has Been Created!” page displayed
-- User automatically logged in</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Account created successfully.
-“Your Account Has Been Created!” page displayed.
-User redirected to My Account page.</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>TC_REG_002</t>
-  </si>
-  <si>
-    <t>First Name left empty</t>
-  </si>
-  <si>
-    <t>1-Leave First Name field empty
-2-Fill other fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Error message appears</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First name is required.
-</t>
-  </si>
-  <si>
-    <t>Validation message displayed correctly below First Name field in red color</t>
-  </si>
-  <si>
-    <t>TC_REG_003</t>
-  </si>
-  <si>
-    <t>Last Name left empty</t>
-  </si>
-  <si>
-    <t>1-Leave Last Name field empty
-2-Fill other fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last name is required.
-</t>
-  </si>
-  <si>
-    <t>Validation message displayed correctly below Last Name field in red color</t>
-  </si>
-  <si>
-    <t>TC_REG_004</t>
-  </si>
-  <si>
-    <t>First Name accepts long input without system failure</t>
-  </si>
-  <si>
-    <t>First Name More than 1000 characters, fill others correctly,
- click Register</t>
-  </si>
-  <si>
-    <t>1000+ characters</t>
-  </si>
-  <si>
-    <t>Error message:
-“First Name must be between 1 and 1000 characters!”</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Internal server error page is displayed.</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Bug logged as BUG_REG_001</t>
-  </si>
-  <si>
-    <t>TC_REG_005</t>
-  </si>
-  <si>
-    <t>Last Name accepts long input without system failure</t>
-  </si>
-  <si>
-    <t>Last Name More than 1000 characters, fill others correctly,
-click Register</t>
-  </si>
-  <si>
-    <t>Error message :
-"Last Name must be between 1 and 1000 characters!*</t>
-  </si>
-  <si>
-    <t>TC_REG_006</t>
-  </si>
-  <si>
-    <t>Password less than 6 characters</t>
-  </si>
-  <si>
-    <t>1-Leave Password field with invalid value
-2-Fill other fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t>password : 12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Error message :
-"Password must meet the following rules:
-must have at least 6 characters and not greater than 64 characters
-</t>
-  </si>
-  <si>
-    <t>TC_REG_007</t>
-  </si>
-  <si>
-    <t>Password more than 64 characters</t>
-  </si>
-  <si>
-    <t>Password more than 64 characters, fill others correctly,
-click Register</t>
-  </si>
-  <si>
-    <t>Password = 64+ characters</t>
-  </si>
-  <si>
-    <t>TC_REG_008</t>
-  </si>
-  <si>
-    <t>Email already registered</t>
-  </si>
-  <si>
-    <t>Use previously registered email, fill others correctly,
-click Register</t>
-  </si>
-  <si>
-    <t>error message:
-“The specified email already exists"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Error message :
-"The specified email already exists"
-</t>
-  </si>
-  <si>
-    <t>TC_REG_009</t>
-  </si>
-  <si>
-    <t>Invalid email format</t>
-  </si>
-  <si>
-    <t>Use Invalid email format , fill others correctly,
-click Register</t>
-  </si>
-  <si>
-    <t>test@@invalid.com</t>
-  </si>
-  <si>
-    <t>Error message:
-"Please enter a valid email address"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message:
-"Please enter a valid email address."
-</t>
-  </si>
-  <si>
-    <t>TC_REG_010</t>
-  </si>
-  <si>
-    <t>SQL Injection attempt in Company</t>
-  </si>
-  <si>
-    <t>1-Enter ''' OR 1=1 --'' in Company field
-2-Fill other required fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company = "' OR 1=1 --" </t>
-  </si>
-  <si>
-    <t>"The system should block 
-the request or sanitize the input to prevent SQL injection. 
-A security warning or block page is expected."</t>
-  </si>
-  <si>
-    <t>The request was blocked by Cloudflare (WAF). A 
-"Sorry, you have been blocked" 
-page was displayed instead of processing the registration.</t>
-  </si>
-  <si>
-    <t>TC_REG_011</t>
-  </si>
-  <si>
-    <t>First Name contains only spaces</t>
-  </si>
-  <si>
-    <t>First Name contains only spaces, fill others correctly,
- click Register</t>
-  </si>
-  <si>
-    <t>"   "</t>
-  </si>
-  <si>
-    <t>"The system accepted the spaces as a valid name &amp; 
-successfully registered the account."</t>
-  </si>
-  <si>
-    <t>TC_REG_012</t>
-  </si>
-  <si>
-    <t>Email with leading/trailing spaces</t>
-  </si>
-  <si>
-    <t>1-Enter valid First Name
-2-Enter valid Last Name
-3-Enter Email with leading and trailing spaces
-4-Enter valid Password
-5-Click Register</t>
-  </si>
-  <si>
-    <t>Email = " testuser@gmail.com "</t>
-  </si>
-  <si>
-    <t>System trims spaces and account is created successfully.</t>
-  </si>
-  <si>
-    <t>The system failed to trim the spaces and displayed a
-validation error: "Please enter a valid email address."</t>
-  </si>
-  <si>
-    <t>TC_REG_013</t>
-  </si>
-  <si>
-    <t>Password with only spaces</t>
-  </si>
-  <si>
-    <t>1-Fill all required fields with valid data
-2-Enter Password containing only spaces
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Password = "      "</t>
-  </si>
-  <si>
-    <t>Error message displayed:
-“Password must be between 6 and 64 characters!”</t>
-  </si>
-  <si>
-    <t>Account created successfully. 
-The system accepted 6 spaces as a valid password.</t>
-  </si>
-  <si>
-    <t>TC_REG_014</t>
-  </si>
-  <si>
-    <t>First Name with special characters (@#$%)</t>
-  </si>
-  <si>
-    <t>1-Enter First Name with special characters
-2-Fill other fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t>First Name = "Ali@#$%"</t>
-  </si>
-  <si>
-    <t>Error message displayed:
-“First Name must contain only alphabetic characters!”</t>
-  </si>
-  <si>
-    <t>The account was created successfully with special
-characters in the name.</t>
-  </si>
-  <si>
-    <t>TC_REG_015</t>
-  </si>
-  <si>
-    <t>First Name Equal 1</t>
-  </si>
-  <si>
-    <t>1-Enter First Name = 1 character
-2-Fill other required fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t>First Name = "A"</t>
-  </si>
-  <si>
-    <t>System should display: 
-"First Name must be between 2 and 1000 characters!" 
-and block registration.</t>
-  </si>
-  <si>
-    <t>Account created successfully and redirected to 
-"Your Account Has Been Created!" page.</t>
-  </si>
-  <si>
-    <t>TC_REG_016</t>
-  </si>
-  <si>
-    <t>First Name Equal32</t>
-  </si>
-  <si>
-    <t>1-Enter First Name = exactly 32 characters
-2-Fill other required fields correctly
-3-Click Register</t>
-  </si>
-  <si>
-    <t>First Name = 32 valid alphabetic 
-characters</t>
-  </si>
-  <si>
-    <t>Expected: Account created successfully</t>
-  </si>
-  <si>
-    <t>Account created successfully.</t>
-  </si>
-  <si>
-    <t>TC_REG_017</t>
-  </si>
-  <si>
-    <t>Attempt SQL Injection in First Name field</t>
-  </si>
-  <si>
-    <t>1-Enter ' OR 1=1 -- in First Name field
-2-Fill other required fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t>First Name = ' OR 1=1 --</t>
-  </si>
-  <si>
-    <t>Input rejected OR sanitized
-Proper validation message displayed
-No crash
-No database error
-No unexpected behavior</t>
-  </si>
-  <si>
-    <t>Request was blocked by Cloudflare security service (WAF). 
-Access denied page displayed.</t>
-  </si>
-  <si>
-    <t>TC_REG_018</t>
-  </si>
-  <si>
-    <t>Enter Arabic characters in First Name</t>
-  </si>
-  <si>
-    <t>1-Enter First Name in Arabic (e.g., محمد)
-2-Fill other required fields correctly
-3-Click Register</t>
-  </si>
-  <si>
-    <t>First Name = "محمد"</t>
-  </si>
-  <si>
-    <t>If Unicode supported → Account created successfully
-OR
-Validation message shown
-⚠ Important: System must not crash</t>
-  </si>
-  <si>
-    <t>Account created successfully and Arabic characters are displayed 
-correctly in the customer info page</t>
-  </si>
-  <si>
-    <t>TC_REG_019</t>
-  </si>
-  <si>
-    <t>Enter emoji in First Name</t>
-  </si>
-  <si>
-    <t>1-Enter emoji in First Name (e.g., Ali😀)
-2-Fill other required fields correctly
-3-Click Register</t>
-  </si>
-  <si>
-    <t>First Name = "Ali😀"</t>
-  </si>
-  <si>
-    <t>System rejects emoji with validation error
-OR
-Accepts it (if allowed by business rule)
-⚠ System must not crash.</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Account created successfully. 
-Emoji is rendered correctly in the user profile.</t>
-  </si>
-  <si>
-    <t>TC_REG_020</t>
-  </si>
-  <si>
-    <t>Paste 200 characters in First Name</t>
-  </si>
-  <si>
-    <t>1-Paste 200 characters in First Name
-2-Fill other required fields correctly
-3-Click Register</t>
-  </si>
-  <si>
-    <t>First Name = 200 characters</t>
-  </si>
-  <si>
-    <t>Account created successfully.
-Full name displayed correctly in profile.</t>
-  </si>
-  <si>
-    <t>Account created successfully and redirected to
- "Your Account Has Been Created!".</t>
-  </si>
-  <si>
-    <t>TC_REG_021</t>
-  </si>
-  <si>
-    <t>Rate Limiting Behavior</t>
-  </si>
-  <si>
-    <t>User is on Registration page
-User has internet connection</t>
-  </si>
-  <si>
-    <t>1-Fill registration form with valid data
-2-Click Register
-3-Repeat registration attempts rapidly (5–10 times)
-4-Refresh page multiple times quickly
-5-Try accessing the website again</t>
-  </si>
-  <si>
-    <t>Valid but repeated submissions</t>
-  </si>
-  <si>
-    <t>System should limit excessive requests
-Access may be temporarily blocked
-Security protection page displayed
-No database corruption
-No server crash</t>
-  </si>
-  <si>
-    <t>Error 1015 displayed
-“You are being rate limited” message shown
-Access temporarily blocked</t>
-  </si>
-  <si>
-    <t>Pass (Security protection 
-working)</t>
-  </si>
-  <si>
-    <t>TC_REG_022</t>
-  </si>
-  <si>
-    <t>Select Male gender</t>
-  </si>
-  <si>
-    <t>1-Select "Male"
-2-Fill all required fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Account created successfully</t>
-  </si>
-  <si>
-    <t>Account created Successfully</t>
-  </si>
-  <si>
-    <t>TC_REG_023</t>
-  </si>
-  <si>
-    <t>Select Female gender</t>
-  </si>
-  <si>
-    <t>1-Select "Female"
-2-Fill all required fields with valid data
-3-Click Register</t>
-  </si>
-  <si>
-    <t>TC_REG_024</t>
-  </si>
-  <si>
-    <t>Company with valid data</t>
-  </si>
-  <si>
-    <t>1-Enter valid First Name
-2-Enter valid Last Name
-3-Enter valid Email
-4-Enter valid Password
-5-Enter same value in Confirm Password
-6-Enter "Tech Solutions" in Company field
-7-Click Register</t>
-  </si>
-  <si>
-    <t>TC_REG_025</t>
-  </si>
-  <si>
-    <t>Company field left empty</t>
-  </si>
-  <si>
-    <t>1-Fill all required fields with valid data
-2-Leave Company field empty
-3-Click Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Company is optional → Account created successfully
-No validation error displayed
-</t>
-  </si>
-  <si>
-    <t>Account created successfully. Company field is blank in the customer 
-information page.</t>
-  </si>
-  <si>
-    <t>TC_REG_026</t>
-  </si>
-  <si>
-    <t>Company with special characters</t>
-  </si>
-  <si>
-    <t>User is in Registration page</t>
-  </si>
-  <si>
-    <t>1-Fill required fields with valid data
-2-Enter "@@@###$$$" in Company field
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Company = "@@@###$$$"</t>
-  </si>
-  <si>
-    <t>Either:
-Account created successfully
-OR
-Proper validation message displayed
-System must not crash</t>
-  </si>
-  <si>
-    <t>Account created successfully. The symbols "@@@###$$$" are 
-displayed correctly in the Company name field</t>
-  </si>
-  <si>
-    <t>TC_REG_027</t>
-  </si>
-  <si>
-    <t>Company exceeds maximum length</t>
-  </si>
-  <si>
-    <t>1-Fill required fields
-2-Enter 1000+ characters in Company field
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Validation message displayed
-OR
-Input restricted automatically
-No system error</t>
-  </si>
-  <si>
-    <t>TC_REG_028</t>
-  </si>
-  <si>
-    <t>Company with leading and trailing spaces</t>
-  </si>
-  <si>
-    <t>1- Fill required fields
-2- Enter the Company with leading and trailing spaces
-3- Click Register</t>
-  </si>
-  <si>
-    <t>Company = " TechCorp "</t>
-  </si>
-  <si>
-    <t>System should trim leading and trailing spaces 
-before saving to the database.</t>
-  </si>
-  <si>
-    <t>Spaces were preserved and displayed in the profile. 
-No trimming applied</t>
-  </si>
-  <si>
-    <t>Fail (Bug de Data Sanitization)</t>
-  </si>
-  <si>
-    <t>TC_REG_029</t>
-  </si>
-  <si>
-    <t>Password and Confirm Password match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is on Registration page </t>
-  </si>
-  <si>
-    <t>1-Enter valid First Name
-2-Enter valid Last Name
-3-Enter valid Email
-4-Enter Password = Test123
-5-Enter Confirm Password = Test123
-6-Click Register</t>
-  </si>
-  <si>
-    <t>Account created successfully
-No validation error displayed</t>
-  </si>
-  <si>
-    <t>TC_REG_030</t>
-  </si>
-  <si>
-    <t>Password mismatch</t>
-  </si>
-  <si>
-    <t>1-Fill required fields with valid data
-2-Password = Test123
-3-Confirm Password = Test321
-4-Click Register</t>
-  </si>
-  <si>
-    <t>Validation message displayed
-Example: “Password confirmation does not match password!”
-Account NOT created</t>
-  </si>
-  <si>
-    <t>The system displayed the expected validation error message
- under the confirm password field.</t>
-  </si>
-  <si>
-    <t>TC_REG_031</t>
-  </si>
-  <si>
-    <t>Confirm Password left empty</t>
-  </si>
-  <si>
-    <t>1-Fill all required fields
-2-Enter Password = Test123
-3-Leave Confirm Password empty
-4-Click Register</t>
-  </si>
-  <si>
-    <t>Password = Test123
-Confirm Password = [Empty]</t>
-  </si>
-  <si>
-    <t>Validation error displayed
-Account NOT created</t>
-  </si>
-  <si>
-    <t>The system displayed the validation
- message: "Password is required."</t>
-  </si>
-  <si>
-    <t>TC_REG_032</t>
-  </si>
-  <si>
-    <t>Confirm Password contains only spaces</t>
-  </si>
-  <si>
-    <t>1-Fill required fields
-2-Password = Test123
-3-Confirm Password = " "
-4-Click Register</t>
-  </si>
-  <si>
-    <t>Password = Test123
-Confirm Password = " "</t>
-  </si>
-  <si>
-    <t>Validation error displayed
-Spaces not accepted
-No crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system displayed the message
-"The password and confirmation password do not match."
-</t>
-  </si>
-  <si>
-    <t>TC_REG_033</t>
-  </si>
-  <si>
-    <t>Confirm Password different case sensitivity</t>
-  </si>
-  <si>
-    <t>1-Fill required fields
-2-Password = Test123
-3-Confirm Password = test123
-4-Click Register</t>
-  </si>
-  <si>
-    <t>Password = Test123
-Confirm Password = test123</t>
-  </si>
-  <si>
-    <t>Validation error displayed
-System is case-sensitive
-Account NOT created</t>
-  </si>
-  <si>
-    <t>TC_REG_034</t>
-  </si>
-  <si>
-    <t>Paste different value in Confirm Password</t>
-  </si>
-  <si>
-    <t>1-Enter Password = Secure456
-2-Copy different text
-3-Paste into Confirm Password
-4-Click Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system displayed the message
-"The password and confirmation password do not match."
-</t>
-  </si>
-  <si>
-    <t>TC_REG_035</t>
-  </si>
-  <si>
-    <t>Both Password and Confirm Password empty</t>
-  </si>
-  <si>
-    <t>1-Leave both fields empty
-2-Fill other required fields
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Password = [empty]
-Confirm Password = [empty]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system displayed the message
-"Password is required."
-</t>
-  </si>
-  <si>
-    <t>TC_REG_036</t>
-  </si>
-  <si>
-    <t>Newsletter checkbox default state</t>
-  </si>
-  <si>
-    <t>1- Open Registration page
-2-Observe Newsletter checkbox state</t>
-  </si>
-  <si>
-    <t>Default state should match business requirement
-(Checked OR Unchecked )
-No UI glitch</t>
-  </si>
-  <si>
-    <t>The Newsletter checkbox is Checked by default when the page loads.</t>
-  </si>
-  <si>
-    <t>TC_REG_037</t>
-  </si>
-  <si>
-    <t>Register with Newsletter unchecked</t>
-  </si>
-  <si>
-    <t>1-Fill all required fields with valid data
-2-Uncheck Newsletter
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Account created successfully
-User NOT subscribed to newsletter
-No error</t>
-  </si>
-  <si>
-    <t>TC_REG_038</t>
-  </si>
-  <si>
-    <t>Register with Newsletter checked</t>
-  </si>
-  <si>
-    <t>1-Fill required fields
-2-Ensure Newsletter is checked
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Account created successfully
-User subscribed to newsletter
-Preference saved in profile</t>
-  </si>
-  <si>
-    <t>TC_REG_039</t>
-  </si>
-  <si>
-    <t>Email case sensitivity validation</t>
-  </si>
-  <si>
-    <t>1-Register with email: testuser@gmail.com
-2-Logout
-3-Try registering again using: TESTUSER@gmail.com
-4-Fill other fields correctly
-5-Click Register</t>
-  </si>
-  <si>
-    <t>Email 1: TESTUSER@gmail.com 
- Email 2: testuser@gmail.com.</t>
-  </si>
-  <si>
-    <t>System should treat emails as identical
-Error message: “E-Mail Address is already registered!”
-Account NOT created
-(Emails should be case-insensitive)</t>
-  </si>
-  <si>
-    <t>the system displayed the message 
-"E-Mail Address is already registered!”
-Account NOT created</t>
-  </si>
-  <si>
-    <t>TC_REG_040</t>
-  </si>
-  <si>
-    <t>Email field left empty</t>
-  </si>
-  <si>
-    <t>User is on registration Page</t>
-  </si>
-  <si>
-    <t>1-Leave Email field empty
-2-Fill other required fields correctly
-3-Click Register</t>
-  </si>
-  <si>
-    <t>Validation message displayed
-Example: “E-Mail Address is required!”
-Account NOT created</t>
-  </si>
-  <si>
-    <t>the system displayed the message 
-"Email is required."
-Account NOT created</t>
-  </si>
-  <si>
-    <t>Test_caseID</t>
   </si>
   <si>
     <t>Test summmary</t>
@@ -937,6 +65,12 @@
     <t>User redirected to My Account page</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
     <t>Total Test Cases</t>
   </si>
   <si>
@@ -974,6 +108,9 @@
   </si>
   <si>
     <t>Email format validation error</t>
+  </si>
+  <si>
+    <t>Medium</t>
   </si>
   <si>
     <t>Total Failed</t>
@@ -1625,12 +762,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1657,12 +794,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1691,10 +828,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1903,1194 +1036,6 @@
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="13.88"/>
-    <col customWidth="1" min="2" max="2" width="39.88"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="44.13"/>
-    <col customWidth="1" min="5" max="5" width="26.75"/>
-    <col customWidth="1" min="6" max="6" width="50.13"/>
-    <col customWidth="1" min="7" max="7" width="8.88"/>
-    <col customWidth="1" min="8" max="8" width="52.13"/>
-    <col customWidth="1" min="9" max="9" width="24.13"/>
-    <col customWidth="1" min="10" max="10" width="59.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
@@ -3108,81 +1053,81 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="L2" s="4">
         <f>COUNTA(A2:A1000)</f>
@@ -3190,29 +1135,29 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>245</v>
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="L3" s="4">
         <f>COUNTIF(H2:H1000,"Pass")</f>
@@ -3220,32 +1165,32 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>251</v>
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="L4" s="4">
         <f>COUNTIF(H2:H1000,"Fail")</f>
@@ -3253,29 +1198,29 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="L5" s="5">
         <f>IF(L2=0,0,L3/L2)</f>
@@ -3283,689 +1228,689 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="A11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
+      <c r="A13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>35</v>
+      <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>35</v>
+      <c r="A15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>308</v>
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>313</v>
+      <c r="A17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>318</v>
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>322</v>
+      <c r="A19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>322</v>
+      <c r="A20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>329</v>
+      <c r="A21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>333</v>
+      <c r="A22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>338</v>
+      <c r="A23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>342</v>
+      <c r="A24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>347</v>
+      <c r="A25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>347</v>
+      <c r="A26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>356</v>
+      <c r="A27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>360</v>
+      <c r="A28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>365</v>
+      <c r="A29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>369</v>
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>374</v>
+      <c r="A31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>379</v>
+      <c r="A32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>384</v>
+      <c r="A33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>388</v>
+      <c r="A34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>392</v>
+      <c r="A35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>396</v>
+      <c r="A36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>400</v>
+      <c r="A37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>405</v>
+      <c r="A38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>409</v>
+      <c r="A39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="H39" s="4"/>
     </row>

--- a/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/2-TC_Login.xlsx
+++ b/3-E-Commerce-Manual-Testing-Project/2-Test_Cases/2-TC_Login.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="220">
   <si>
     <t>Test_caseID</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Test summmary</t>
+  </si>
+  <si>
+    <t>Security_Observations</t>
   </si>
   <si>
     <t>TC_LOG_001</t>
@@ -58,11 +61,15 @@
 4- Click Login</t>
   </si>
   <si>
-    <t>Email: validuser@test.com
-Password: Valid123</t>
-  </si>
-  <si>
-    <t>User redirected to My Account page</t>
+    <t>Email: ennadafy@gmail.com
+Password: Ali.1130</t>
+  </si>
+  <si>
+    <t>User is successfully logged in and redirected to homepage.
+My Account and Logout links are visible</t>
+  </si>
+  <si>
+    <t>User redirected to Home page. My Account and Logout are visible.</t>
   </si>
   <si>
     <t>Pass</t>
@@ -86,7 +93,12 @@
 4 - Click Login</t>
   </si>
   <si>
-    <t>Error message displayed: "Login was unsuccessful"</t>
+    <t>Error message displayed: "Login was unsuccessful"
+Generic error message displayed
+Login fails</t>
+  </si>
+  <si>
+    <t>Login failed. Generic error message displayed: "The credentials provided are incorrect"</t>
   </si>
   <si>
     <t>Total Passed</t>
@@ -110,6 +122,9 @@
     <t>Email format validation error</t>
   </si>
   <si>
+    <t>Validation message displayed: "Wrong email"</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -131,6 +146,10 @@
     <t>Validation message under Email field</t>
   </si>
   <si>
+    <t xml:space="preserve">Validation message displayed: "Please enter your email"
+</t>
+  </si>
+  <si>
     <t>Passe Rate</t>
   </si>
   <si>
@@ -146,7 +165,17 @@
 4 - Click Login</t>
   </si>
   <si>
-    <t>Validation message under Password field</t>
+    <t>Validation message should be displayed under the Password field stating:
+"Password is required" (or equivalent required-field message).
+User should not be logged in.</t>
+  </si>
+  <si>
+    <t>Generic error message displayed at top:
+" Login was unsuccessful. Please correct the errors and try again.
+ The credentials provided are incorrect"</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>TC_LOG_006</t>
@@ -169,12 +198,14 @@
 8- Navigate again to the website</t>
   </si>
   <si>
-    <t>Email: validuser@test.com
-Password: Valid123</t>
-  </si>
-  <si>
-    <t>User remains logged in
-User is redirected directly to My Account page</t>
+    <t>Email: ennadafy@gmail.com
+Password: Ali.1130</t>
+  </si>
+  <si>
+    <t>User remains logged in after closing and reopening the browser.</t>
+  </si>
+  <si>
+    <t>User is still logged in and "My account" &amp; "Log out" are displayed.</t>
   </si>
   <si>
     <t>TC_LOG_007</t>
@@ -183,7 +214,11 @@
     <t>Login without selecting "Remember me</t>
   </si>
   <si>
-    <t>After closing and reopening browser → user should NOT remain logged in</t>
+    <t>User should be logged out after closing the browser.
+Login page should be displayed when reopening the website</t>
+  </si>
+  <si>
+    <t>User was required to log in again after reopening the browser.</t>
   </si>
   <si>
     <t>TC_LOG_008</t>
@@ -199,7 +234,11 @@
 2- Click on "Forgot password?" link</t>
   </si>
   <si>
-    <t>User is redirected to Password Recovery page</t>
+    <t>User should be redirected to the Password Recovery page.
+Page should display email input field and Recover button.</t>
+  </si>
+  <si>
+    <t>User is redirected to Password recovery page with email field and Recover button displayed.</t>
   </si>
   <si>
     <t>TC_LOG_009</t>
@@ -213,14 +252,17 @@
   </si>
   <si>
     <t>1- Enter registered email
-2- Click Submit</t>
-  </si>
-  <si>
-    <t>Email: validuser@test.com</t>
-  </si>
-  <si>
-    <t>Success message displayed
-Password reset email sent</t>
+2- Click Recover</t>
+  </si>
+  <si>
+    <t>Email: aennadafy@gmail.com</t>
+  </si>
+  <si>
+    <t>System should display confirmation message 
+that reset instructions have been sent.</t>
+  </si>
+  <si>
+    <t>"Email with instructions has been sent to you." displayed.</t>
   </si>
   <si>
     <t>TC_LOG_010</t>
@@ -230,13 +272,16 @@
   </si>
   <si>
     <t>1- Enter email that is not registered
-2- Click Submit</t>
-  </si>
-  <si>
-    <t>Email: notregistered@test.com</t>
-  </si>
-  <si>
-    <t>Error message displayed (email not found)</t>
+2- Click Recover</t>
+  </si>
+  <si>
+    <t>Email: notregistered@gmail.com</t>
+  </si>
+  <si>
+    <t>System should display error message indicating that the email does not exist.</t>
+  </si>
+  <si>
+    <t>"Email not found." message displayed.</t>
   </si>
   <si>
     <t>TC_LOG_011</t>
@@ -246,10 +291,15 @@
   </si>
   <si>
     <t>1- Leave email empty
-2- Click Submit</t>
-  </si>
-  <si>
-    <t>Validation message displayed under Email field</t>
+2- Click Recover</t>
+  </si>
+  <si>
+    <t>Validation message should be displayed under the email field indicating that 
+the email is required.
+System should not proceed with recovery request.</t>
+  </si>
+  <si>
+    <t>Enter your email" validation message displayed under email field."</t>
   </si>
   <si>
     <t>TC_LOG_012</t>
@@ -270,6 +320,10 @@
     <t>After first click → Password becomes visible in plain text
 After second click → Password becomes hidden 
 (masked with dots or asterisks)</t>
+  </si>
+  <si>
+    <t>Password became visible after clicking Show
+Password became hidden after clicking again</t>
   </si>
   <si>
     <t>TC_LOG_013</t>
@@ -310,7 +364,7 @@
     <t>TC_LOG_015</t>
   </si>
   <si>
-    <t>Verify that the account is locked after multiple consecutive failed login attempts.</t>
+    <t>Verify system behavior after multiple consecutive failed login attempts.</t>
   </si>
   <si>
     <t>User account already created
@@ -329,11 +383,18 @@
 Password: Wrong123</t>
   </si>
   <si>
-    <t>After exceeding allowed attempts:
-Account becomes locked
-Proper error message is displayed (e.g., “Your account has been locked”)
-User cannot log in even with correct password
-System logs the failed attempts</t>
+    <t>System should display generic error message for each failed attempt.
+No system crash.
+No technical details exposed.</t>
+  </si>
+  <si>
+    <t>System allows multiple consecutive failed login attempts.
+No account lock mechanism is triggered after 6 failed attempts.
+Same error message displayed each time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No account lock mechanism implemented (Potential brute-force risk).
+</t>
   </si>
   <si>
     <t>TC_LOG_016</t>
@@ -347,8 +408,8 @@
   </si>
   <si>
     <t>1-Go to Login page
-2-Enter email: VALIDUSER@TEST.COM
-3-Enter password: Password123
+2-Enter email: ENNADAFY@GMAIL.COM
+3-Enter password: Ali.1130
 4-Click Login</t>
   </si>
   <si>
@@ -356,17 +417,20 @@
 System ignores email case</t>
   </si>
   <si>
+    <t>Observation:
+Newly registered accounts are not persistent and appear to be removed 
+after several hours.
+This is likely due to periodic database reset in demo environment.</t>
+  </si>
+  <si>
     <t>TC_LOG_017</t>
   </si>
   <si>
     <t>Verify login using email with uppercase &amp; lowercase</t>
   </si>
   <si>
-    <t xml:space="preserve">User is on Login page </t>
-  </si>
-  <si>
-    <t>1-Enter email: VaLiDuSeR@TeSt.CoM
-2-Enter password: Password123
+    <t>1-Enter email: EnNaDaFy@GmAil.CoM
+2-Enter password: Ali.1130
 3-Click Login</t>
   </si>
   <si>
@@ -379,8 +443,8 @@
     <t>Verify login using password Case Sensitivity (Lowercase)</t>
   </si>
   <si>
-    <t>1-Enter email: validuser@test.com
-2-Enter password: password123
+    <t>1-Enter email: ennadafy@gmail.com
+2-Enter password: ali.1130
 3-Click Login</t>
   </si>
   <si>
@@ -388,25 +452,35 @@
 Error message displayed (Invalid credentials)</t>
   </si>
   <si>
+    <t>Login fails 
+error message displayed " Login was unsuccessful. Please correct the errors and try again.
+The credentials provided are incorrect"</t>
+  </si>
+  <si>
     <t>TC_LOG_019</t>
   </si>
   <si>
     <t>Verify login using password with uppercase &amp; lowercase</t>
   </si>
   <si>
-    <t>1-Enter email: validuser@test.com
-2-Enter password: PaSsWoRd123
+    <t>1-Enter email: ennadafy@gmail.com
+2-Enter password: ALi.1130
 3-Click Login</t>
   </si>
   <si>
+    <t>Login fails 
+error message displayed " Login was unsuccessful. Please correct the errors and try again.
+The credentials provided are incorrect"</t>
+  </si>
+  <si>
     <t>TC_LOG_020</t>
   </si>
   <si>
     <t xml:space="preserve">verify login using  email uppercase with wrong password </t>
   </si>
   <si>
-    <t>1-Enter email: VALIDUSER@TEST.COM
-2-Enter password: password123
+    <t>1-Enter email: ENNADAFY@GMAIL.COM
+2-Enter password: ali.1130
 3-Click Login</t>
   </si>
   <si>
@@ -420,7 +494,7 @@
     <t>Email with Leading Space</t>
   </si>
   <si>
-    <t>1-Enter email: " validuser@test.com"
+    <t>1-Enter email: " ennadafy@gmail.com"
 2-Enter correct password
 3-Click Login</t>
   </si>
@@ -429,6 +503,10 @@
 System trims leading space automatically</t>
   </si>
   <si>
+    <t xml:space="preserve">Login successful
+</t>
+  </si>
+  <si>
     <t>TC_LOG_022</t>
   </si>
   <si>
@@ -439,7 +517,7 @@
 User is on Login page</t>
   </si>
   <si>
-    <t>1-Enter email: "validuser@test.com " 
+    <t>1-Enter email: "ennadafy@gmail.com " 
 2-Enter correct password
 3-Click Login</t>
   </si>
@@ -454,7 +532,7 @@
     <t>Email with Spaces Before and After</t>
   </si>
   <si>
-    <t>1-Enter email: " validuser@test.com "
+    <t>1-Enter email: " ennadafy@gmail.com "
 2-Enter correct password
 3-Click Login</t>
   </si>
@@ -474,7 +552,7 @@
   </si>
   <si>
     <t>1-Enter correct email
-2-Enter password: " Password123"
+2-Enter password: " Ali.1130"
 3-Click Login</t>
   </si>
   <si>
@@ -488,7 +566,7 @@
   </si>
   <si>
     <t>1-Enter correct email
-2-Enter password: "Password123 "
+2-Enter password: "Ali.1130 "
 3-Click Login</t>
   </si>
   <si>
@@ -508,14 +586,17 @@
 4-Instead of clicking the Login button, press Enter key on keyboard</t>
   </si>
   <si>
-    <t>Email: validuser@test.com
-Password: Password123</t>
-  </si>
-  <si>
     <t>Login form is submitted
-User is redirected to My Account page
+User is redirected to Home page
 No error displayed
 Behavior is same as clicking Login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login form is submitted
+User is redirected to home page
+No error displayed
+Behavior is same as clickling Login button
+</t>
   </si>
   <si>
     <t>TC_LOG_027</t>
@@ -529,9 +610,13 @@
 3-Press Enter</t>
   </si>
   <si>
-    <t>1-Login fails
-2-Proper error message displayed
-3-No page crash</t>
+    <t>Login fails
+Proper error message displayed
+No page crash</t>
+  </si>
+  <si>
+    <t>error message displaed "Login was unsuccessful. Please correct the errors and try again
+The credentials provided are incorrect"</t>
   </si>
   <si>
     <t>TC_LOG_028</t>
@@ -560,6 +645,11 @@
 Login successful</t>
   </si>
   <si>
+    <t>Browser autofill populated email and password correctly
+No UI issues observed
+Login successful</t>
+  </si>
+  <si>
     <t>TC_LOG_029</t>
   </si>
   <si>
@@ -574,6 +664,9 @@
     <t>Validation message for password displayed
 No crash
 No unexpected behavior</t>
+  </si>
+  <si>
+    <t>Browser autofill populated both email and password simultaneously.</t>
   </si>
   <si>
     <t>TC_LOG_030</t>
@@ -601,6 +694,12 @@
 Autofill must NOT bypass validation rules.</t>
   </si>
   <si>
+    <t xml:space="preserve">Browser autofill populated the old saved password.
+Login attempt failed with incorrect credentials message.
+Password validation rules were correctly enforced.
+</t>
+  </si>
+  <si>
     <t>TC_LOG_031</t>
   </si>
   <si>
@@ -614,6 +713,10 @@
     <t>1-Enter a valid registered email
 2-Enter an incorrect password
 3-Click Login</t>
+  </si>
+  <si>
+    <t>Email: ennadafy@gmail.com
+Password: Wrong123</t>
   </si>
   <si>
     <t>Login fails
@@ -622,6 +725,12 @@
 System does NOT indicate whether email or password is incorrect</t>
   </si>
   <si>
+    <t xml:space="preserve">login Fails
+error message displayed "Login was unsuccessful. Please correct the errors and try again.
+No customer account found"
+</t>
+  </si>
+  <si>
     <t>TC_LOG_032</t>
   </si>
   <si>
@@ -643,6 +752,12 @@
 System does NOT display "Email not found"</t>
   </si>
   <si>
+    <t xml:space="preserve">login Fails
+error message displayed "Login was unsuccessful. Please correct the errors and try again.
+No customer account found"
+</t>
+  </si>
+  <si>
     <t>TC_LOG_033</t>
   </si>
   <si>
@@ -656,6 +771,13 @@
     <t>Same generic message displayed every time
 No variation revealing system logic
 No technical error exposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same generic message displayed every time " Login was unsuccessful. Please correct 
+the errors and try again .no customer account found "
+No variation revealing system logic
+No technical error exposed
+</t>
   </si>
   <si>
     <t>TC_LOG_034</t>
@@ -673,6 +795,10 @@
 No SQL error
 No system internal message
 Clean and user-friendly error only</t>
+  </si>
+  <si>
+    <t>Generic error message displayed.
+No technical or system-level details exposed in UI or browser console.</t>
   </si>
   <si>
     <t>TC_LOG_035</t>
@@ -695,6 +821,12 @@
 No unauthorized access</t>
   </si>
   <si>
+    <t xml:space="preserve">Invalid email format validation triggered.
+Malicious input was not processed.
+error message displayed " Please enter a valid email address."
+</t>
+  </si>
+  <si>
     <t>TC_LOG_036</t>
   </si>
   <si>
@@ -717,7 +849,7 @@
     <t>TC_LOG_037</t>
   </si>
   <si>
-    <t>Verify that session expires after inactivity.</t>
+    <t>Verify system behavior after inactivity period.</t>
   </si>
   <si>
     <t>User logged in successfully</t>
@@ -728,9 +860,15 @@
 3-Try to refresh or navigate to another page</t>
   </si>
   <si>
-    <t>User is logged out automatically
-Redirected to Login page
-Session expired message displayed (if applicable)</t>
+    <t>Expire session after configured timeout
+OR
+Keep session active if no timeout is implemented.</t>
+  </si>
+  <si>
+    <t>After 15 minutes of inactivity, session remained active and user accessed My Account successfully.</t>
+  </si>
+  <si>
+    <t>Session timeout not enforced (Potential security risk in production environment).</t>
   </si>
   <si>
     <t>TC_LOG_038</t>
@@ -740,9 +878,10 @@
   </si>
   <si>
     <t>1-Login
-2-Navigate to My Account page
-3-Logout
-4-Manually paste My Account URL in browser</t>
+2- Navigate to My Account
+3- Copy My Account URL
+4- Logout
+5- Paste copied URL in browser</t>
   </si>
   <si>
     <t>Access denied
@@ -787,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -800,6 +939,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1044,12 +1186,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="69.13"/>
-    <col customWidth="1" min="3" max="3" width="30.0"/>
+    <col customWidth="1" min="3" max="3" width="30.75"/>
     <col customWidth="1" min="4" max="4" width="69.38"/>
-    <col customWidth="1" min="5" max="5" width="24.25"/>
-    <col customWidth="1" min="6" max="6" width="55.63"/>
-    <col customWidth="1" min="7" max="7" width="25.88"/>
+    <col customWidth="1" min="5" max="5" width="25.63"/>
+    <col customWidth="1" min="6" max="6" width="58.5"/>
+    <col customWidth="1" min="7" max="7" width="75.5"/>
     <col customWidth="1" min="11" max="11" width="13.75"/>
+    <col customWidth="1" min="12" max="12" width="10.0"/>
+    <col customWidth="1" min="13" max="13" width="60.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1084,8 +1228,10 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1102,32 +1248,34 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="4">
         <f>COUNTA(A2:A1000)</f>
@@ -1136,783 +1284,954 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4">
         <f>COUNTIF(H2:H1000,"Pass")</f>
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L4" s="4">
         <f>COUNTIF(H2:H1000,"Fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5" s="5">
         <f>IF(L2=0,0,L3/L2)</f>
-        <v>0.02631578947</v>
+        <v>0.9736842105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>73</v>
+        <v>86</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>169</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="4"/>
+        <v>188</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H34" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>208</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>213</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H39" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="H40" s="4"/>
